--- a/User_credentials/Users.xlsx
+++ b/User_credentials/Users.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Email</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>xqrcohdmhl@dragonhospital.net</t>
-  </si>
-  <si>
-    <t>calden0010@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -409,7 +406,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,12 +431,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1234</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -447,7 +439,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
